--- a/build/resources/test/test-data-sheet.xlsx
+++ b/build/resources/test/test-data-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\parindersinghraina\data-driven-framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B061B9F-A19D-4DB6-8AA9-3C2B9004B0F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5370D5FD-DE30-4040-A307-95A0C1730656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FD902937-D1D8-4FB3-914A-2FEDB077ED39}"/>
   </bookViews>
@@ -50,10 +50,10 @@
     <t>TC_Login_01</t>
   </si>
   <si>
-    <t>P@rinder55</t>
-  </si>
-  <si>
     <t>parindersinghraina111111</t>
+  </si>
+  <si>
+    <t>texttttttt</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,15 +458,15 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{060964E7-6A08-4E6E-A2E0-80304BD1703D}"/>
+    <hyperlink ref="C2" r:id="rId1" display="P@rinder55" xr:uid="{060964E7-6A08-4E6E-A2E0-80304BD1703D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
